--- a/Sandbox/bin/ProductInformation_data.xlsx
+++ b/Sandbox/bin/ProductInformation_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Product name</t>
   </si>
@@ -37,6 +37,9 @@
     <t>proc1</t>
   </si>
   <si>
+    <t>ID.1</t>
+  </si>
+  <si>
     <t>short description</t>
   </si>
   <si>
@@ -49,39 +52,67 @@
     <t>proc2</t>
   </si>
   <si>
+    <t>ID.2</t>
+  </si>
+  <si>
     <t>proc3</t>
   </si>
   <si>
+    <t>ID.3</t>
+  </si>
+  <si>
     <t>proc4</t>
   </si>
   <si>
+    <t>ID.4</t>
+  </si>
+  <si>
     <t>proc5</t>
   </si>
   <si>
+    <t>ID.5</t>
+  </si>
+  <si>
     <t>proc6</t>
   </si>
   <si>
+    <t>ID.6</t>
+  </si>
+  <si>
     <t>proc7</t>
   </si>
   <si>
+    <t>ID.7</t>
+  </si>
+  <si>
     <t>proc8</t>
   </si>
   <si>
+    <t>ID.8</t>
+  </si>
+  <si>
     <t>proc9</t>
   </si>
   <si>
+    <t>ID.9</t>
+  </si>
+  <si>
     <t>proc10</t>
+  </si>
+  <si>
+    <t>ID.10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -98,29 +129,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,6 +145,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -142,38 +213,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -183,7 +222,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,14 +236,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -213,20 +252,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -251,13 +282,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,169 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,6 +500,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -484,13 +526,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,21 +560,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -547,13 +578,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,138 +596,141 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
@@ -1024,7 +1058,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1059,200 +1093,200 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
-        <v>123</v>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
         <v>100</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>200</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="1">
-        <v>223</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1">
-        <v>200</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1">
-        <v>323</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
         <v>300</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <v>423</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2">
         <v>400</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1">
-        <v>523</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
         <v>500</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1">
-        <v>623</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
         <v>600</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1">
-        <v>723</v>
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
         <v>700</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1">
-        <v>823</v>
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
         <v>800</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1">
-        <v>923</v>
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
         <v>900</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>9</v>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1023</v>
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
         <v>1000</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Sandbox/bin/ProductInformation_data.xlsx
+++ b/Sandbox/bin/ProductInformation_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15030" windowHeight="12240"/>
+    <workbookView windowWidth="19200" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
@@ -137,6 +137,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -146,7 +175,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,54 +183,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,31 +228,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,29 +259,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,187 +282,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,33 +480,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,25 +525,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,153 +562,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1103,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>10</v>
@@ -1123,7 +1123,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>10</v>
@@ -1143,7 +1143,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="2">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>10</v>
@@ -1163,7 +1163,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>10</v>
@@ -1183,7 +1183,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>10</v>
@@ -1203,7 +1203,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="2">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>10</v>
@@ -1223,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="2">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>10</v>
@@ -1243,7 +1243,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="2">
-        <v>800</v>
+        <v>220</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>10</v>
@@ -1263,7 +1263,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="2">
-        <v>900</v>
+        <v>360</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>10</v>
@@ -1283,7 +1283,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="2">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>10</v>
